--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42993,6 +42993,41 @@
         <v>1415600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>676800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43028,6 +43028,41 @@
         <v>676800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>469700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43063,6 +43063,41 @@
         <v>469700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>237300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43098,6 +43098,41 @@
         <v>237300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>166800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43133,6 +43133,41 @@
         <v>166800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>158300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43168,6 +43168,41 @@
         <v>158300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>183300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43203,6 +43203,41 @@
         <v>183300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>104500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43238,6 +43238,41 @@
         <v>104500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>103200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43273,6 +43273,41 @@
         <v>103200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>57000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43308,6 +43308,41 @@
         <v>57000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>465300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         <v>465300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>92600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,41 @@
         <v>92600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>203300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,76 @@
         <v>203300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>383500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,76 @@
         <v>383500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>166600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>104000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,41 @@
         <v>104000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>226400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43588,6 +43588,41 @@
         <v>226400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>97800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,41 @@
         <v>97800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>146100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,6 +43658,41 @@
         <v>146100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>822900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,76 @@
         <v>822900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>178300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>131100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         <v>131100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>673500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>673500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1288900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1785"/>
+  <dimension ref="A1:I1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62873,6 +62873,41 @@
         <v>1288900</v>
       </c>
     </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>701600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1786"/>
+  <dimension ref="A1:I1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62908,6 +62908,41 @@
         <v>701600</v>
       </c>
     </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>603800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1787"/>
+  <dimension ref="A1:I1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62943,6 +62943,41 @@
         <v>603800</v>
       </c>
     </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>207200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1788"/>
+  <dimension ref="A1:I1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62978,6 +62978,41 @@
         <v>207200</v>
       </c>
     </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>589500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1789"/>
+  <dimension ref="A1:I1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63013,6 +63013,41 @@
         <v>589500</v>
       </c>
     </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>379900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1790"/>
+  <dimension ref="A1:I1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63048,6 +63048,41 @@
         <v>379900</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>499200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1791"/>
+  <dimension ref="A1:I1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63083,6 +63083,41 @@
         <v>499200</v>
       </c>
     </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>310100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1792"/>
+  <dimension ref="A1:I1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63118,6 +63118,41 @@
         <v>310100</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>945600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1793"/>
+  <dimension ref="A1:I1794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63153,6 +63153,41 @@
         <v>945600</v>
       </c>
     </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>1893100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1794"/>
+  <dimension ref="A1:I1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63188,6 +63188,41 @@
         <v>1893100</v>
       </c>
     </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>1355100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1795"/>
+  <dimension ref="A1:I1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63223,6 +63223,41 @@
         <v>1355100</v>
       </c>
     </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>178300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1796"/>
+  <dimension ref="A1:I1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63258,6 +63258,41 @@
         <v>178300</v>
       </c>
     </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>571500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1797"/>
+  <dimension ref="A1:I1798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63293,6 +63293,41 @@
         <v>571500</v>
       </c>
     </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>831400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1798"/>
+  <dimension ref="A1:I1799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63328,6 +63328,41 @@
         <v>831400</v>
       </c>
     </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>235100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1799"/>
+  <dimension ref="A1:I1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63363,6 +63363,41 @@
         <v>235100</v>
       </c>
     </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>404500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2084"/>
+  <dimension ref="A1:I2085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73338,6 +73338,41 @@
         <v>404500</v>
       </c>
     </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>696000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2085"/>
+  <dimension ref="A1:I2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73373,6 +73373,41 @@
         <v>696000</v>
       </c>
     </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>1127900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2086"/>
+  <dimension ref="A1:I2087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73408,6 +73408,41 @@
         <v>1127900</v>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>764700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73443,6 +73443,41 @@
         <v>764700</v>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>499900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73478,6 +73478,41 @@
         <v>499900</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>345000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73513,6 +73513,41 @@
         <v>345000</v>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>637100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73548,6 +73548,41 @@
         <v>637100</v>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>455400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73583,6 +73583,41 @@
         <v>455400</v>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>607900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73618,6 +73618,41 @@
         <v>607900</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>1178900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2093"/>
+  <dimension ref="A1:I2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73653,6 +73653,41 @@
         <v>1178900</v>
       </c>
     </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2094" t="n">
+        <v>4955900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2094"/>
+  <dimension ref="A1:I2096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73688,6 +73688,76 @@
         <v>4955900</v>
       </c>
     </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2095" t="n">
+        <v>5231200</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2096" t="n">
+        <v>1692200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73758,6 +73758,41 @@
         <v>1692200</v>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2097" t="n">
+        <v>1722000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73793,6 +73793,111 @@
         <v>1722000</v>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2098" t="n">
+        <v>1835500</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2099" t="n">
+        <v>22728100</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2100" t="n">
+        <v>3480300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73898,6 +73898,41 @@
         <v>3480300</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2101" t="n">
+        <v>2322600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73933,6 +73933,41 @@
         <v>2322600</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2102" t="n">
+        <v>1528800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7235.xlsx
+++ b/data/7235.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73968,6 +73968,111 @@
         <v>1528800</v>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2103" t="n">
+        <v>1273700</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2104" t="n">
+        <v>1110600</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>SUPERLN</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>1488800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
